--- a/GMAB.xlsx
+++ b/GMAB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F6CC57-D652-482B-ADE4-41AAD31F60E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7342E9-D24E-462D-8260-55486DE93541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="38700" windowHeight="15345" xr2:uid="{0D5CB397-B169-4B4B-B34C-77A7CB149699}"/>
+    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" xr2:uid="{0D5CB397-B169-4B4B-B34C-77A7CB149699}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>Shares</t>
   </si>
   <si>
-    <t>Q322</t>
-  </si>
-  <si>
     <t>MC USD</t>
   </si>
   <si>
@@ -165,12 +162,15 @@
   </si>
   <si>
     <t>EV DKK</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -187,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -195,22 +195,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{5304530D-FC94-44E7-89BD-3A56F16DCE9E}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -223,9 +321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,7 +361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -369,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,7 +609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,217 +617,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D450C234-FE29-467F-ACE3-BBBC5D188AAE}">
-  <dimension ref="B2:L14"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2">
-        <v>38.93</v>
+      <c r="K2" s="12">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="5"/>
       <c r="J3" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="1">
-        <v>2703</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
+      <c r="H4" s="5"/>
       <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="1">
-        <v>65.829282000000006</v>
+        <v>66.136909000000003</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="J5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
       </c>
       <c r="K5" s="1">
         <f>+K2*K4*10</f>
-        <v>25627.3394826</v>
+        <v>17856.96543</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1">
         <f>+K3*K4</f>
-        <v>177936.54924600001</v>
+        <v>123676.01983</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1">
+        <f>4331+11402+196</f>
+        <v>15929</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="J8" t="s">
         <v>40</v>
-      </c>
-      <c r="K7" s="1">
-        <f>23788+155</f>
-        <v>23943</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1">
         <f>+K6-K7+K8</f>
-        <v>153993.54924600001</v>
+        <v>107747.01983</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GMAB.xlsx
+++ b/GMAB.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7342E9-D24E-462D-8260-55486DE93541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1269D71-57F6-472E-A614-5F994ABFDD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" xr2:uid="{0D5CB397-B169-4B4B-B34C-77A7CB149699}"/>
+    <workbookView xWindow="14120" yWindow="3850" windowWidth="22760" windowHeight="13530" activeTab="1" xr2:uid="{0D5CB397-B169-4B4B-B34C-77A7CB149699}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -71,9 +72,6 @@
     <t>IP</t>
   </si>
   <si>
-    <t>epcoritamab</t>
-  </si>
-  <si>
     <t>CD20xCD3 mab</t>
   </si>
   <si>
@@ -165,6 +163,75 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>Epkinly (epcoritamab)</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>rinatabart sesutecan</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Royalties</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Darzalex</t>
+  </si>
+  <si>
+    <t>Darzalex royalties</t>
+  </si>
+  <si>
+    <t>Other Royalties</t>
+  </si>
+  <si>
+    <t>Other Revenue</t>
   </si>
 </sst>
 </file>
@@ -285,13 +352,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -619,290 +685,477 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D450C234-FE29-467F-ACE3-BBBC5D188AAE}">
   <dimension ref="B2:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="11">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="J3" t="s">
+      <c r="K3" s="1">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="J4" t="s">
+      <c r="K4" s="1">
+        <v>66.197243999999998</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="J5" t="s">
         <v>16</v>
-      </c>
-      <c r="K4" s="1">
-        <v>66.136909000000003</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="J5" t="s">
-        <v>17</v>
       </c>
       <c r="K5" s="1">
         <f>+K2*K4*10</f>
-        <v>17856.96543</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+        <v>13729.308405599997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="4"/>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1">
         <f>+K3*K4</f>
-        <v>123676.01983</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+        <v>91021.210500000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="J7" t="s">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1">
-        <f>4331+11402+196</f>
-        <v>15929</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="J8" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="J9" t="s">
         <v>40</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="J9" t="s">
-        <v>41</v>
       </c>
       <c r="K9" s="1">
         <f>+K6-K7+K8</f>
-        <v>107747.01983</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+        <v>91021.210500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4140E641-7F03-4C54-995D-2B202724EE6B}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2">
+        <v>2022</v>
+      </c>
+      <c r="N2">
+        <f>+M2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="O2">
+        <f>+N2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="P2">
+        <f>+O2+1</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2">
+        <v>452</v>
+      </c>
+      <c r="G6" s="2">
+        <v>589</v>
+      </c>
+      <c r="P6">
+        <f>+P4+P5</f>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7">
+        <f>438+162</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2">
+        <v>603</v>
+      </c>
+      <c r="G8" s="2">
+        <v>715</v>
+      </c>
+      <c r="P8">
+        <f>+P6+P7</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2">
+        <f>+C8-C9</f>
+        <v>576</v>
+      </c>
+      <c r="G10" s="2">
+        <f>+G8-G9</f>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2">
+        <v>335</v>
+      </c>
+      <c r="G11" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2">
+        <v>125</v>
+      </c>
+      <c r="G12" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:F13" si="0">+C11+C12</f>
+        <v>460</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f>+G11+G12</f>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:F14" si="1">+C10-C13</f>
+        <v>116</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f>+G10-G13</f>
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
